--- a/AMBION, HERSHEY.xlsx
+++ b/AMBION, HERSHEY.xlsx
@@ -1,49 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9372CC2-5E15-4531-B53C-A7E47F842109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC2452E-912E-4C55-9DEB-1FE090F73ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="CONVERTION" sheetId="3" r:id="rId3"/>
+    <sheet name="2018 LEAVE CREDITS" sheetId="5" r:id="rId2"/>
+    <sheet name="2017 LEAVE BALANCE" sheetId="1" r:id="rId3"/>
+    <sheet name="CONVERTION" sheetId="3" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="BALANCE_1" localSheetId="2">[1]!Table1[[#Headers],[BALANCE]]</definedName>
+    <definedName name="BALANCE_1" localSheetId="1">Table13[[#Headers],[BALANCE]]</definedName>
+    <definedName name="BALANCE_1" localSheetId="3">[1]!Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="57">
   <si>
     <t>PERIOD</t>
   </si>
@@ -632,7 +627,249 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="30">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -2312,25 +2549,55 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AD184472-6098-468D-AC5E-CC95C767B3A2}" name="Table13" displayName="Table13" ref="A8:K129" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{23618FA7-8FE1-47F3-A791-7E4F2612427B}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{BA6D2C36-5CF4-40D7-AFDD-218AEBB26721}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{44B79BA7-06A4-4888-BFE5-96396FB13C9E}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{4A0226B1-34C9-4795-969F-217648673E7D}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{0CC1A2D2-A5E8-4901-9853-A087B6F27A21}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{946BAF08-C313-4E7D-A7DB-48B64E1AB5C8}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{018DB96A-73C1-41D5-8E50-51AA8744BFC6}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{DC9BB319-717A-4DD8-A513-E57B7F11DE10}" name="BALANCE" dataDxfId="6">
+      <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{C22EF545-EFE1-42CA-AB28-2B85551AF898}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{852FD6EF-FD67-4F37-A829-94D925E0B6B3}" name="EARNED " dataDxfId="4">
+      <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{7990FD5D-7AB4-411D-8803-20052688870C}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{F417C39B-41C2-4747-AFAB-2CB31EA5770B}" name="BALANCE " dataDxfId="2">
+      <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{543B352F-915B-4ADA-8855-D50555C13E2E}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{0657BDAE-CC0C-4505-835E-922D4B341109}" name="REMARKS" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
+      <x14:table altText="BALANCE_2"/>
+    </ext>
+  </extLst>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K70" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{23618FA7-8FE1-47F3-A791-7E4F2612427B}" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{BA6D2C36-5CF4-40D7-AFDD-218AEBB26721}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{44B79BA7-06A4-4888-BFE5-96396FB13C9E}" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1A20B288-1D72-4858-B3C2-871EB9CF011E}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{16E84B2D-53AC-4AEA-B1BC-1BC1E2E9B51B}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{1A20B288-1D72-4858-B3C2-871EB9CF011E}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{16E84B2D-53AC-4AEA-B1BC-1BC1E2E9B51B}" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A10DEDBF-F571-4518-A832-0B75654FC984}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{9E225A68-4AC2-420E-B4D1-1378612CB5CD}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{A10DEDBF-F571-4518-A832-0B75654FC984}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{9E225A68-4AC2-420E-B4D1-1378612CB5CD}" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{715FA023-3759-440B-8D8E-42D3E30EC36F}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{7E55BDC4-4FFC-4009-94E5-7F3F3565D56A}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{715FA023-3759-440B-8D8E-42D3E30EC36F}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{7E55BDC4-4FFC-4009-94E5-7F3F3565D56A}" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2630,7 +2897,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2655,16 +2922,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FF8E2B-FA0C-43AD-94F6-3305AF75672F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B0A0EDF-9492-4EAE-8F2F-9D28EA23DAE2}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K130"/>
+  <dimension ref="A2:K129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A70" activePane="bottomLeft"/>
-      <selection activeCell="M4" sqref="M4"/>
-      <selection pane="bottomLeft" activeCell="K76" sqref="K76"/>
+      <pane ySplit="3576" topLeftCell="A7" activePane="bottomLeft"/>
+      <selection activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="K72" sqref="K72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2822,18 +3089,18 @@
       <c r="C9" s="13"/>
       <c r="D9" s="11"/>
       <c r="E9" s="13">
-        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>108.5</v>
+        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
+        <v>50</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="13">
-        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>180</v>
+        <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
+        <v>75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -2850,7 +3117,7 @@
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H10" s="39"/>
@@ -2872,7 +3139,7 @@
       <c r="E11" s="9"/>
       <c r="F11" s="20"/>
       <c r="G11" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H11" s="39"/>
@@ -2892,7 +3159,7 @@
       <c r="E12" s="9"/>
       <c r="F12" s="20"/>
       <c r="G12" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H12" s="39"/>
@@ -2912,7 +3179,7 @@
       <c r="E13" s="9"/>
       <c r="F13" s="20"/>
       <c r="G13" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H13" s="39"/>
@@ -2932,7 +3199,7 @@
       <c r="E14" s="9"/>
       <c r="F14" s="20"/>
       <c r="G14" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H14" s="39"/>
@@ -2952,7 +3219,7 @@
       <c r="E15" s="9"/>
       <c r="F15" s="20"/>
       <c r="G15" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H15" s="39"/>
@@ -2972,7 +3239,7 @@
       <c r="E16" s="9"/>
       <c r="F16" s="15"/>
       <c r="G16" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H16" s="43"/>
@@ -2992,7 +3259,7 @@
       <c r="E17" s="9"/>
       <c r="F17" s="20"/>
       <c r="G17" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H17" s="39"/>
@@ -3012,7 +3279,7 @@
       <c r="E18" s="9"/>
       <c r="F18" s="20"/>
       <c r="G18" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H18" s="39"/>
@@ -3032,7 +3299,7 @@
       <c r="E19" s="9"/>
       <c r="F19" s="20"/>
       <c r="G19" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H19" s="39"/>
@@ -3052,7 +3319,7 @@
       <c r="E20" s="9"/>
       <c r="F20" s="20"/>
       <c r="G20" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H20" s="39"/>
@@ -3072,7 +3339,7 @@
       <c r="E21" s="9"/>
       <c r="F21" s="20"/>
       <c r="G21" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H21" s="39"/>
@@ -3096,7 +3363,7 @@
       <c r="E22" s="9"/>
       <c r="F22" s="20"/>
       <c r="G22" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H22" s="39"/>
@@ -3114,7 +3381,7 @@
       <c r="E23" s="9"/>
       <c r="F23" s="20"/>
       <c r="G23" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H23" s="39"/>
@@ -3134,7 +3401,7 @@
       <c r="E24" s="9"/>
       <c r="F24" s="20"/>
       <c r="G24" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H24" s="39"/>
@@ -3154,7 +3421,7 @@
       <c r="E25" s="9"/>
       <c r="F25" s="20"/>
       <c r="G25" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H25" s="39"/>
@@ -3174,7 +3441,7 @@
       <c r="E26" s="9"/>
       <c r="F26" s="20"/>
       <c r="G26" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H26" s="39"/>
@@ -3194,7 +3461,7 @@
       <c r="E27" s="9"/>
       <c r="F27" s="20"/>
       <c r="G27" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H27" s="39"/>
@@ -3214,7 +3481,7 @@
       <c r="E28" s="9"/>
       <c r="F28" s="20"/>
       <c r="G28" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H28" s="39"/>
@@ -3234,7 +3501,7 @@
       <c r="E29" s="9"/>
       <c r="F29" s="20"/>
       <c r="G29" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H29" s="39"/>
@@ -3254,7 +3521,7 @@
       <c r="E30" s="9"/>
       <c r="F30" s="20"/>
       <c r="G30" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H30" s="39"/>
@@ -3274,7 +3541,7 @@
       <c r="E31" s="9"/>
       <c r="F31" s="20"/>
       <c r="G31" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H31" s="39"/>
@@ -3294,7 +3561,7 @@
       <c r="E32" s="9"/>
       <c r="F32" s="20"/>
       <c r="G32" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H32" s="39"/>
@@ -3314,7 +3581,7 @@
       <c r="E33" s="9"/>
       <c r="F33" s="20"/>
       <c r="G33" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H33" s="39"/>
@@ -3334,7 +3601,7 @@
       <c r="E34" s="9"/>
       <c r="F34" s="20"/>
       <c r="G34" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H34" s="39"/>
@@ -3358,7 +3625,7 @@
       <c r="E35" s="9"/>
       <c r="F35" s="20"/>
       <c r="G35" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H35" s="39"/>
@@ -3376,7 +3643,7 @@
       <c r="E36" s="9"/>
       <c r="F36" s="20"/>
       <c r="G36" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H36" s="39"/>
@@ -3396,7 +3663,7 @@
       <c r="E37" s="9"/>
       <c r="F37" s="20"/>
       <c r="G37" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H37" s="39"/>
@@ -3416,7 +3683,7 @@
       <c r="E38" s="9"/>
       <c r="F38" s="20"/>
       <c r="G38" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H38" s="39"/>
@@ -3436,7 +3703,7 @@
       <c r="E39" s="9"/>
       <c r="F39" s="20"/>
       <c r="G39" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H39" s="39"/>
@@ -3456,7 +3723,7 @@
       <c r="E40" s="9"/>
       <c r="F40" s="20"/>
       <c r="G40" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H40" s="39"/>
@@ -3476,7 +3743,7 @@
       <c r="E41" s="9"/>
       <c r="F41" s="20"/>
       <c r="G41" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H41" s="39"/>
@@ -3496,7 +3763,7 @@
       <c r="E42" s="9"/>
       <c r="F42" s="20"/>
       <c r="G42" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H42" s="39"/>
@@ -3516,7 +3783,7 @@
       <c r="E43" s="9"/>
       <c r="F43" s="20"/>
       <c r="G43" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H43" s="39"/>
@@ -3536,7 +3803,7 @@
       <c r="E44" s="9"/>
       <c r="F44" s="20"/>
       <c r="G44" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H44" s="39"/>
@@ -3556,7 +3823,7 @@
       <c r="E45" s="9"/>
       <c r="F45" s="20"/>
       <c r="G45" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H45" s="39"/>
@@ -3576,7 +3843,7 @@
       <c r="E46" s="9"/>
       <c r="F46" s="20"/>
       <c r="G46" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H46" s="39"/>
@@ -3596,7 +3863,7 @@
       <c r="E47" s="9"/>
       <c r="F47" s="20"/>
       <c r="G47" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H47" s="39"/>
@@ -3620,7 +3887,7 @@
       <c r="E48" s="9"/>
       <c r="F48" s="20"/>
       <c r="G48" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H48" s="39"/>
@@ -3638,7 +3905,7 @@
       <c r="E49" s="9"/>
       <c r="F49" s="20"/>
       <c r="G49" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H49" s="39"/>
@@ -3658,7 +3925,7 @@
       <c r="E50" s="9"/>
       <c r="F50" s="20"/>
       <c r="G50" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H50" s="39"/>
@@ -3678,7 +3945,7 @@
       <c r="E51" s="9"/>
       <c r="F51" s="20"/>
       <c r="G51" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H51" s="39"/>
@@ -3698,7 +3965,7 @@
       <c r="E52" s="9"/>
       <c r="F52" s="20"/>
       <c r="G52" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H52" s="39"/>
@@ -3718,7 +3985,7 @@
       <c r="E53" s="9"/>
       <c r="F53" s="20"/>
       <c r="G53" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H53" s="39"/>
@@ -3738,7 +4005,7 @@
       <c r="E54" s="9"/>
       <c r="F54" s="20"/>
       <c r="G54" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H54" s="39"/>
@@ -3758,7 +4025,7 @@
       <c r="E55" s="9"/>
       <c r="F55" s="20"/>
       <c r="G55" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H55" s="39"/>
@@ -3778,7 +4045,7 @@
       <c r="E56" s="9"/>
       <c r="F56" s="20"/>
       <c r="G56" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H56" s="39"/>
@@ -3798,7 +4065,7 @@
       <c r="E57" s="9"/>
       <c r="F57" s="20"/>
       <c r="G57" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H57" s="39"/>
@@ -3818,7 +4085,7 @@
       <c r="E58" s="9"/>
       <c r="F58" s="20"/>
       <c r="G58" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H58" s="39"/>
@@ -3838,7 +4105,7 @@
       <c r="E59" s="9"/>
       <c r="F59" s="20"/>
       <c r="G59" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H59" s="39"/>
@@ -3858,7 +4125,7 @@
       <c r="E60" s="9"/>
       <c r="F60" s="20"/>
       <c r="G60" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H60" s="39"/>
@@ -3882,7 +4149,7 @@
       <c r="E61" s="9"/>
       <c r="F61" s="20"/>
       <c r="G61" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H61" s="39"/>
@@ -3900,7 +4167,7 @@
       <c r="E62" s="9"/>
       <c r="F62" s="20"/>
       <c r="G62" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H62" s="39"/>
@@ -3920,7 +4187,7 @@
       <c r="E63" s="9"/>
       <c r="F63" s="20"/>
       <c r="G63" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H63" s="39"/>
@@ -3940,7 +4207,7 @@
       <c r="E64" s="9"/>
       <c r="F64" s="20"/>
       <c r="G64" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H64" s="39"/>
@@ -3960,7 +4227,7 @@
       <c r="E65" s="9"/>
       <c r="F65" s="20"/>
       <c r="G65" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H65" s="39"/>
@@ -3980,7 +4247,7 @@
       <c r="E66" s="9"/>
       <c r="F66" s="20"/>
       <c r="G66" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H66" s="39"/>
@@ -4000,7 +4267,7 @@
       <c r="E67" s="9"/>
       <c r="F67" s="20"/>
       <c r="G67" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H67" s="39"/>
@@ -4020,7 +4287,7 @@
       <c r="E68" s="9"/>
       <c r="F68" s="20"/>
       <c r="G68" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H68" s="39"/>
@@ -4032,9 +4299,7 @@
       <c r="A69" s="40">
         <v>44743</v>
       </c>
-      <c r="B69" s="20" t="s">
-        <v>51</v>
-      </c>
+      <c r="B69" s="20"/>
       <c r="C69" s="13">
         <v>1.25</v>
       </c>
@@ -4042,17 +4307,13 @@
       <c r="E69" s="9"/>
       <c r="F69" s="20"/>
       <c r="G69" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H69" s="39">
-        <v>1</v>
-      </c>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H69" s="39"/>
       <c r="I69" s="9"/>
       <c r="J69" s="11"/>
-      <c r="K69" s="49">
-        <v>44757</v>
-      </c>
+      <c r="K69" s="49"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
@@ -4070,7 +4331,7 @@
       <c r="E70" s="9"/>
       <c r="F70" s="20"/>
       <c r="G70" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H70" s="39"/>
@@ -4084,28 +4345,26 @@
       <c r="A71" s="40">
         <v>44805</v>
       </c>
-      <c r="B71" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C71" s="13"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D71" s="39"/>
       <c r="E71" s="9"/>
       <c r="F71" s="20"/>
-      <c r="G71" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H71" s="39">
-        <v>2</v>
-      </c>
+      <c r="G71" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H71" s="39"/>
       <c r="I71" s="9"/>
       <c r="J71" s="11"/>
-      <c r="K71" s="20" t="s">
-        <v>53</v>
-      </c>
+      <c r="K71" s="20"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" s="40"/>
+      <c r="A72" s="40">
+        <v>44835</v>
+      </c>
       <c r="B72" s="20"/>
       <c r="C72" s="13">
         <v>1.25</v>
@@ -4114,87 +4373,75 @@
       <c r="E72" s="9"/>
       <c r="F72" s="20"/>
       <c r="G72" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H72" s="39"/>
       <c r="I72" s="9"/>
       <c r="J72" s="11"/>
-      <c r="K72" s="20"/>
+      <c r="K72" s="49"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
-        <v>44835</v>
-      </c>
-      <c r="B73" s="20" t="s">
-        <v>50</v>
-      </c>
+        <v>44866</v>
+      </c>
+      <c r="B73" s="20"/>
       <c r="C73" s="13">
         <v>1.25</v>
       </c>
-      <c r="D73" s="39">
-        <v>1</v>
-      </c>
+      <c r="D73" s="39"/>
       <c r="E73" s="9"/>
       <c r="F73" s="20"/>
       <c r="G73" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H73" s="39"/>
       <c r="I73" s="9"/>
       <c r="J73" s="11"/>
-      <c r="K73" s="49">
-        <v>44858</v>
-      </c>
+      <c r="K73" s="49"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C74" s="13">
         <v>1.25</v>
       </c>
-      <c r="D74" s="39"/>
+      <c r="D74" s="39">
+        <v>4</v>
+      </c>
       <c r="E74" s="9"/>
       <c r="F74" s="20"/>
       <c r="G74" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H74" s="39"/>
       <c r="I74" s="9"/>
       <c r="J74" s="11"/>
-      <c r="K74" s="49"/>
+      <c r="K74" s="20" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A75" s="40">
-        <v>44896</v>
-      </c>
-      <c r="B75" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C75" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D75" s="39">
-        <v>4</v>
-      </c>
+      <c r="A75" s="40"/>
+      <c r="B75" s="20"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="39"/>
       <c r="E75" s="9"/>
       <c r="F75" s="20"/>
-      <c r="G75" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G75" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H75" s="39"/>
       <c r="I75" s="9"/>
       <c r="J75" s="11"/>
-      <c r="K75" s="20" t="s">
-        <v>56</v>
-      </c>
+      <c r="K75" s="20"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
@@ -4204,7 +4451,7 @@
       <c r="E76" s="9"/>
       <c r="F76" s="20"/>
       <c r="G76" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H76" s="39"/>
@@ -4220,7 +4467,7 @@
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
       <c r="G77" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H77" s="39"/>
@@ -4236,7 +4483,7 @@
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
       <c r="G78" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H78" s="39"/>
@@ -4252,7 +4499,7 @@
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
       <c r="G79" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H79" s="39"/>
@@ -4268,7 +4515,7 @@
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
       <c r="G80" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H80" s="39"/>
@@ -4284,7 +4531,7 @@
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
       <c r="G81" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H81" s="39"/>
@@ -4300,7 +4547,7 @@
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
       <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H82" s="39"/>
@@ -4316,7 +4563,7 @@
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
       <c r="G83" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H83" s="39"/>
@@ -4332,7 +4579,7 @@
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
       <c r="G84" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H84" s="39"/>
@@ -4348,7 +4595,7 @@
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
       <c r="G85" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H85" s="39"/>
@@ -4364,7 +4611,7 @@
       <c r="E86" s="9"/>
       <c r="F86" s="20"/>
       <c r="G86" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H86" s="39"/>
@@ -4380,7 +4627,7 @@
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
       <c r="G87" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H87" s="39"/>
@@ -4396,7 +4643,7 @@
       <c r="E88" s="9"/>
       <c r="F88" s="20"/>
       <c r="G88" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H88" s="39"/>
@@ -4412,7 +4659,7 @@
       <c r="E89" s="9"/>
       <c r="F89" s="20"/>
       <c r="G89" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H89" s="39"/>
@@ -4428,7 +4675,7 @@
       <c r="E90" s="9"/>
       <c r="F90" s="20"/>
       <c r="G90" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H90" s="39"/>
@@ -4444,7 +4691,7 @@
       <c r="E91" s="9"/>
       <c r="F91" s="20"/>
       <c r="G91" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H91" s="39"/>
@@ -4460,7 +4707,7 @@
       <c r="E92" s="9"/>
       <c r="F92" s="20"/>
       <c r="G92" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H92" s="39"/>
@@ -4476,7 +4723,7 @@
       <c r="E93" s="9"/>
       <c r="F93" s="20"/>
       <c r="G93" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H93" s="39"/>
@@ -4492,7 +4739,7 @@
       <c r="E94" s="9"/>
       <c r="F94" s="20"/>
       <c r="G94" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H94" s="39"/>
@@ -4508,7 +4755,7 @@
       <c r="E95" s="9"/>
       <c r="F95" s="20"/>
       <c r="G95" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H95" s="39"/>
@@ -4524,7 +4771,7 @@
       <c r="E96" s="9"/>
       <c r="F96" s="20"/>
       <c r="G96" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H96" s="39"/>
@@ -4540,7 +4787,7 @@
       <c r="E97" s="9"/>
       <c r="F97" s="20"/>
       <c r="G97" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H97" s="39"/>
@@ -4556,7 +4803,7 @@
       <c r="E98" s="9"/>
       <c r="F98" s="20"/>
       <c r="G98" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H98" s="39"/>
@@ -4572,7 +4819,7 @@
       <c r="E99" s="9"/>
       <c r="F99" s="20"/>
       <c r="G99" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H99" s="39"/>
@@ -4588,7 +4835,7 @@
       <c r="E100" s="9"/>
       <c r="F100" s="20"/>
       <c r="G100" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H100" s="39"/>
@@ -4604,7 +4851,7 @@
       <c r="E101" s="9"/>
       <c r="F101" s="20"/>
       <c r="G101" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H101" s="39"/>
@@ -4620,7 +4867,7 @@
       <c r="E102" s="9"/>
       <c r="F102" s="20"/>
       <c r="G102" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H102" s="39"/>
@@ -4636,7 +4883,7 @@
       <c r="E103" s="9"/>
       <c r="F103" s="20"/>
       <c r="G103" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H103" s="39"/>
@@ -4652,7 +4899,7 @@
       <c r="E104" s="9"/>
       <c r="F104" s="20"/>
       <c r="G104" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H104" s="39"/>
@@ -4668,7 +4915,7 @@
       <c r="E105" s="9"/>
       <c r="F105" s="20"/>
       <c r="G105" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H105" s="39"/>
@@ -4684,7 +4931,7 @@
       <c r="E106" s="9"/>
       <c r="F106" s="20"/>
       <c r="G106" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H106" s="39"/>
@@ -4700,7 +4947,7 @@
       <c r="E107" s="9"/>
       <c r="F107" s="20"/>
       <c r="G107" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H107" s="39"/>
@@ -4716,7 +4963,7 @@
       <c r="E108" s="9"/>
       <c r="F108" s="20"/>
       <c r="G108" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H108" s="39"/>
@@ -4732,7 +4979,7 @@
       <c r="E109" s="9"/>
       <c r="F109" s="20"/>
       <c r="G109" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H109" s="39"/>
@@ -4748,7 +4995,7 @@
       <c r="E110" s="9"/>
       <c r="F110" s="20"/>
       <c r="G110" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H110" s="39"/>
@@ -4764,7 +5011,7 @@
       <c r="E111" s="9"/>
       <c r="F111" s="20"/>
       <c r="G111" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H111" s="39"/>
@@ -4780,7 +5027,7 @@
       <c r="E112" s="9"/>
       <c r="F112" s="20"/>
       <c r="G112" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H112" s="39"/>
@@ -4796,7 +5043,7 @@
       <c r="E113" s="9"/>
       <c r="F113" s="20"/>
       <c r="G113" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H113" s="39"/>
@@ -4812,7 +5059,7 @@
       <c r="E114" s="9"/>
       <c r="F114" s="20"/>
       <c r="G114" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H114" s="39"/>
@@ -4828,7 +5075,7 @@
       <c r="E115" s="9"/>
       <c r="F115" s="20"/>
       <c r="G115" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H115" s="39"/>
@@ -4844,7 +5091,7 @@
       <c r="E116" s="9"/>
       <c r="F116" s="20"/>
       <c r="G116" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H116" s="39"/>
@@ -4860,7 +5107,7 @@
       <c r="E117" s="9"/>
       <c r="F117" s="20"/>
       <c r="G117" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H117" s="39"/>
@@ -4876,7 +5123,7 @@
       <c r="E118" s="9"/>
       <c r="F118" s="20"/>
       <c r="G118" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H118" s="39"/>
@@ -4892,7 +5139,7 @@
       <c r="E119" s="9"/>
       <c r="F119" s="20"/>
       <c r="G119" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H119" s="39"/>
@@ -4908,7 +5155,7 @@
       <c r="E120" s="9"/>
       <c r="F120" s="20"/>
       <c r="G120" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H120" s="39"/>
@@ -4924,7 +5171,7 @@
       <c r="E121" s="9"/>
       <c r="F121" s="20"/>
       <c r="G121" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H121" s="39"/>
@@ -4940,7 +5187,7 @@
       <c r="E122" s="9"/>
       <c r="F122" s="20"/>
       <c r="G122" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H122" s="39"/>
@@ -4956,7 +5203,7 @@
       <c r="E123" s="9"/>
       <c r="F123" s="20"/>
       <c r="G123" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H123" s="39"/>
@@ -4972,7 +5219,7 @@
       <c r="E124" s="9"/>
       <c r="F124" s="20"/>
       <c r="G124" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H124" s="39"/>
@@ -4988,7 +5235,7 @@
       <c r="E125" s="9"/>
       <c r="F125" s="20"/>
       <c r="G125" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H125" s="39"/>
@@ -5004,7 +5251,7 @@
       <c r="E126" s="9"/>
       <c r="F126" s="20"/>
       <c r="G126" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H126" s="39"/>
@@ -5020,7 +5267,7 @@
       <c r="E127" s="9"/>
       <c r="F127" s="20"/>
       <c r="G127" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H127" s="39"/>
@@ -5036,7 +5283,7 @@
       <c r="E128" s="9"/>
       <c r="F128" s="20"/>
       <c r="G128" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H128" s="39"/>
@@ -5045,36 +5292,1250 @@
       <c r="K128" s="20"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A129" s="40"/>
-      <c r="B129" s="20"/>
-      <c r="C129" s="13"/>
-      <c r="D129" s="39"/>
+      <c r="A129" s="41"/>
+      <c r="B129" s="15"/>
+      <c r="C129" s="42"/>
+      <c r="D129" s="43"/>
       <c r="E129" s="9"/>
-      <c r="F129" s="20"/>
-      <c r="G129" s="13" t="str">
+      <c r="F129" s="15"/>
+      <c r="G129" s="42" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H129" s="43"/>
+      <c r="I129" s="9"/>
+      <c r="J129" s="12"/>
+      <c r="K129" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="J3:K3"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{81CF8FC1-5EDA-49EB-A8C2-CF05A14D70F8}">
+      <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{6887DEF1-C204-4BFD-9A2C-7DC03634FE51}">
+      <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="89" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"-,Bold"&amp;12REPUBLIC OF THE PHILIPPINES
+CITY OF TAGAYTAY
+EMPLOYEE'S LEAVE CARD</oddHeader>
+    <oddFooter>&amp;L
+PREPARED BY: ___________________
+DATE: &amp;D, &amp;T&amp;C
+CERTIFIED CORRECT BY: &amp;UALMA A. MALABANAN&amp;U
+                                   HRMO&amp;RPage &amp;P of &amp;N</oddFooter>
+  </headerFooter>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FF8E2B-FA0C-43AD-94F6-3305AF75672F}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:K70"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3576" topLeftCell="A10" activePane="bottomLeft"/>
+      <selection activeCell="M4" sqref="M4"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="51"/>
+      <c r="D2" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="25"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="57"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="26"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="55"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="51"/>
+      <c r="D4" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="26"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="16"/>
+      <c r="H5" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="27"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="17"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="19"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="14"/>
+    </row>
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="23"/>
+      <c r="B9" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="13">
+        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
+        <v>58.5</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H129" s="39"/>
-      <c r="I129" s="9"/>
-      <c r="J129" s="11"/>
-      <c r="K129" s="20"/>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A130" s="41"/>
-      <c r="B130" s="15"/>
-      <c r="C130" s="42"/>
-      <c r="D130" s="43"/>
-      <c r="E130" s="9"/>
-      <c r="F130" s="15"/>
-      <c r="G130" s="42" t="str">
+      <c r="H9" s="11"/>
+      <c r="I9" s="13">
+        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
+        <v>105</v>
+      </c>
+      <c r="J9" s="11"/>
+      <c r="K9" s="20"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H130" s="43"/>
-      <c r="I130" s="9"/>
-      <c r="J130" s="12"/>
-      <c r="K130" s="15"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="20"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="40">
+        <v>44743</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H11" s="39">
+        <v>1</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="49">
+        <v>44757</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="40">
+        <v>44805</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H12" s="39">
+        <v>2</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="40"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H13" s="39"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="20"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="40">
+        <v>44835</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="39">
+        <v>1</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H14" s="39"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="49">
+        <v>44858</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="40">
+        <v>44866</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H15" s="39"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="49"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="40"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H16" s="39"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="20"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="40"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H17" s="39"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="20"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="40"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H18" s="39"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="20"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="40"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H19" s="39"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="20"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="40"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H20" s="39"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="20"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="40"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H21" s="39"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="20"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="40"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H22" s="39"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="20"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="40"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H23" s="39"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="20"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="40"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H24" s="39"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="20"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="40"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H25" s="39"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="20"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="40"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H26" s="39"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="20"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="40"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H27" s="39"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="20"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="40"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H28" s="39"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="20"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="40"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H29" s="39"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="20"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="40"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H30" s="39"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="20"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="40"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H31" s="39"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="20"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="40"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H32" s="39"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="20"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="40"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H33" s="39"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="20"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="40"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H34" s="39"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="20"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="40"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H35" s="39"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="20"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="40"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H36" s="39"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="20"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="40"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H37" s="39"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="20"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="40"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H38" s="39"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="20"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="40"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H39" s="39"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="20"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="40"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H40" s="39"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="20"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="40"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H41" s="39"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="20"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="40"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H42" s="39"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="20"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="40"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H43" s="39"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="20"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="40"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H44" s="39"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="20"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="40"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H45" s="39"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="20"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="40"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H46" s="39"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="20"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="40"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H47" s="39"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="20"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="40"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H48" s="39"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="20"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="40"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H49" s="39"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="20"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="40"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H50" s="39"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="20"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="40"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H51" s="39"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="20"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="40"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H52" s="39"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="20"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="40"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H53" s="39"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="20"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="40"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H54" s="39"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="20"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="40"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H55" s="39"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="20"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="40"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H56" s="39"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="20"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="40"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H57" s="39"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="20"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="40"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="39"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H58" s="39"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="20"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="40"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H59" s="39"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="20"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="40"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H60" s="39"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="20"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="40"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H61" s="39"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="20"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="40"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H62" s="39"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="20"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="40"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H63" s="39"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="20"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" s="40"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H64" s="39"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="20"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="40"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H65" s="39"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="20"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" s="40"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H66" s="39"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="20"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" s="40"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="39"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H67" s="39"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="20"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" s="40"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H68" s="39"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="20"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" s="40"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H69" s="39"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="20"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" s="41"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="42"/>
+      <c r="D70" s="43"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H70" s="43"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5116,7 +6577,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB8F789-193C-43F9-8D48-B0DEE5C76ADA}">
   <dimension ref="A1:L67"/>
   <sheetViews>
